--- a/decks/N1_학습하기/N1_04_카타카나및기타표현/N1_04_03_조수사 한자읽기_5.xlsx
+++ b/decks/N1_학습하기/N1_04_카타카나및기타표현/N1_04_03_조수사 한자읽기_5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>기(기계·설비·시설 수)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>〜隻</t>
@@ -1431,8 +1434,8 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.0234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.9062" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
     <col min="6" max="9" width="16.3516" style="1" customWidth="1"/>
     <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1471,7 +1474,9 @@
       <c r="D2" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" t="s" s="7">
+        <v>8</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
@@ -1482,15 +1487,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -1501,15 +1508,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>8</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
@@ -1520,15 +1529,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>8</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
@@ -1539,15 +1550,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
